--- a/tools/omelox-excel/template/bundle_data.xlsx
+++ b/tools/omelox-excel/template/bundle_data.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
     <sheet name="model" sheetId="5" r:id="rId2"/>
     <sheet name="default" sheetId="6" r:id="rId3"/>
-    <sheet name="google" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="292">
   <si>
     <t>字段名</t>
   </si>
@@ -930,21 +929,18 @@
   <si>
     <t>jqy</t>
   </si>
-  <si>
-    <t>denglongyu_boss11</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -998,8 +994,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1015,17 +1047,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1038,23 +1062,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,36 +1078,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,6 +1088,37 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1127,29 +1138,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1161,7 +1150,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1230,7 +1219,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,7 +1291,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,37 +1339,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,49 +1351,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,61 +1387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1597,15 +1574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1617,6 +1585,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1638,20 +1624,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1685,25 +1671,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1712,152 +1689,152 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2001,7 +1978,7 @@
     <cellStyle name="常规 4" xfId="56"/>
     <cellStyle name="常规 5" xfId="57"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2019,6 +1996,316 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
@@ -2033,77 +2320,37 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:AE26" totalsRowShown="0">
   <autoFilter ref="A3:AE26"/>
   <tableColumns count="31">
-    <tableColumn id="1" name="编号"/>
-    <tableColumn id="2" name="鱼类名称"/>
-    <tableColumn id="3" name="名称"/>
-    <tableColumn id="4" name="唯一id"/>
-    <tableColumn id="5" name="体型"/>
-    <tableColumn id="6" name="鱼ID"/>
-    <tableColumn id="7" name="鱼类描述"/>
-    <tableColumn id="8" name="特殊说明"/>
-    <tableColumn id="9" name="模型ID"/>
-    <tableColumn id="10" name="类型1234"/>
-    <tableColumn id="11" name="奖金鱼名称图片"/>
-    <tableColumn id="12" name="翻转"/>
-    <tableColumn id="13" name="朝向调整"/>
-    <tableColumn id="14" name="图鉴icon"/>
-    <tableColumn id="15" name="移动动画"/>
-    <tableColumn id="16" name="挂件，目前是鱼数组"/>
-    <tableColumn id="17" name="挂件参数"/>
-    <tableColumn id="18" name="体型缩放"/>
-    <tableColumn id="19" name="刷新频率秒"/>
-    <tableColumn id="20" name="条数概率"/>
-    <tableColumn id="21" name="路径ID"/>
-    <tableColumn id="22" name="死亡技能"/>
-    <tableColumn id="23" name="初始技能"/>
-    <tableColumn id="24" name="初始血量"/>
-    <tableColumn id="25" name="分值"/>
-    <tableColumn id="26" name="掉落包id组"/>
-    <tableColumn id="27" name="移动速度"/>
-    <tableColumn id="28" name="逃跑速度"/>
-    <tableColumn id="29" name="鱼基本概率"/>
-    <tableColumn id="30" name="修正参数A"/>
-    <tableColumn id="31" name="用于场景"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:AE26" totalsRowShown="0">
-  <autoFilter ref="A3:AE26"/>
-  <tableColumns count="31">
-    <tableColumn id="1" name="编号"/>
-    <tableColumn id="2" name="鱼类名称"/>
-    <tableColumn id="3" name="名称"/>
-    <tableColumn id="4" name="唯一id"/>
-    <tableColumn id="5" name="体型"/>
-    <tableColumn id="6" name="鱼ID"/>
-    <tableColumn id="7" name="鱼类描述"/>
-    <tableColumn id="8" name="特殊说明"/>
-    <tableColumn id="9" name="模型ID"/>
-    <tableColumn id="10" name="类型1234"/>
-    <tableColumn id="11" name="奖金鱼名称图片"/>
-    <tableColumn id="12" name="翻转"/>
-    <tableColumn id="13" name="朝向调整"/>
-    <tableColumn id="14" name="图鉴icon"/>
-    <tableColumn id="15" name="移动动画"/>
-    <tableColumn id="16" name="挂件，目前是鱼数组"/>
-    <tableColumn id="17" name="挂件参数"/>
-    <tableColumn id="18" name="体型缩放"/>
-    <tableColumn id="19" name="刷新频率秒"/>
-    <tableColumn id="20" name="条数概率"/>
-    <tableColumn id="21" name="路径ID"/>
-    <tableColumn id="22" name="死亡技能"/>
-    <tableColumn id="23" name="初始技能"/>
-    <tableColumn id="24" name="初始血量"/>
-    <tableColumn id="25" name="分值"/>
-    <tableColumn id="26" name="掉落包id组"/>
-    <tableColumn id="27" name="移动速度"/>
-    <tableColumn id="28" name="逃跑速度"/>
-    <tableColumn id="29" name="鱼基本概率"/>
-    <tableColumn id="30" name="修正参数A"/>
-    <tableColumn id="31" name="用于场景"/>
+    <tableColumn id="1" name="编号" dataDxfId="2"/>
+    <tableColumn id="2" name="鱼类名称" dataDxfId="3"/>
+    <tableColumn id="3" name="名称" dataDxfId="4"/>
+    <tableColumn id="4" name="唯一id" dataDxfId="5"/>
+    <tableColumn id="5" name="体型" dataDxfId="6"/>
+    <tableColumn id="6" name="鱼ID" dataDxfId="7"/>
+    <tableColumn id="7" name="鱼类描述" dataDxfId="8"/>
+    <tableColumn id="8" name="特殊说明" dataDxfId="9"/>
+    <tableColumn id="9" name="模型ID" dataDxfId="10"/>
+    <tableColumn id="10" name="类型1234" dataDxfId="11"/>
+    <tableColumn id="11" name="奖金鱼名称图片" dataDxfId="12"/>
+    <tableColumn id="12" name="翻转" dataDxfId="13"/>
+    <tableColumn id="13" name="朝向调整" dataDxfId="14"/>
+    <tableColumn id="14" name="图鉴icon" dataDxfId="15"/>
+    <tableColumn id="15" name="移动动画" dataDxfId="16"/>
+    <tableColumn id="16" name="挂件，目前是鱼数组" dataDxfId="17"/>
+    <tableColumn id="17" name="挂件参数" dataDxfId="18"/>
+    <tableColumn id="18" name="体型缩放" dataDxfId="19"/>
+    <tableColumn id="19" name="刷新频率秒" dataDxfId="20"/>
+    <tableColumn id="20" name="条数概率" dataDxfId="21"/>
+    <tableColumn id="21" name="路径ID" dataDxfId="22"/>
+    <tableColumn id="22" name="死亡技能" dataDxfId="23"/>
+    <tableColumn id="23" name="初始技能" dataDxfId="24"/>
+    <tableColumn id="24" name="初始血量" dataDxfId="25"/>
+    <tableColumn id="25" name="分值" dataDxfId="26"/>
+    <tableColumn id="26" name="掉落包id组" dataDxfId="27"/>
+    <tableColumn id="27" name="移动速度" dataDxfId="28"/>
+    <tableColumn id="28" name="逃跑速度" dataDxfId="29"/>
+    <tableColumn id="29" name="鱼基本概率" dataDxfId="30"/>
+    <tableColumn id="30" name="修正参数A" dataDxfId="31"/>
+    <tableColumn id="31" name="用于场景" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2399,7 +2646,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2911,9 +3158,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="捕获到大鱼，金币获得界面显示鱼名称" prompt="." sqref="K3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" prompt="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" sqref="J3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0无需调整，1实时调整朝向" prompt="." sqref="M3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="填写0.8即变为原体型的0.8倍大小" prompt="." sqref="R3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="数组第1个元素必须为动画第1帧" prompt="逗号之后填写整个移动动画的总帧数&#10;[&quot;第一帧名称&quot;, 总帧数]" sqref="O3:P3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="默认[],[x偏移,y偏移,自身缩放]" sqref="Q3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="填写0.8即变为原体型的0.8倍大小" prompt="." sqref="R3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可以以范围刷新" prompt="[2,4]代表2~4秒刷新1次&#10;[2]代表2秒刷新1次" sqref="S3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="同一条鱼只出1只填写[100]" prompt="如果填写1只以上，总几率也必须为100，例如[50,50]" sqref="T3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scene表配置ID" prompt="." sqref="U3"/>
@@ -5446,2550 +5693,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="捕获到大鱼，金币获得界面显示鱼名称" prompt="." sqref="K3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" prompt="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" sqref="J3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0无需调整，1实时调整朝向" prompt="." sqref="M3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="填写0.8即变为原体型的0.8倍大小" prompt="." sqref="R3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="数组第1个元素必须为动画第1帧" prompt="逗号之后填写整个移动动画的总帧数&#10;[&quot;第一帧名称&quot;, 总帧数]" sqref="O3:P3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="默认[],[x偏移,y偏移,自身缩放]" sqref="Q3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可以以范围刷新" prompt="[2,4]代表2~4秒刷新1次&#10;[2]代表2秒刷新1次" sqref="S3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="同一条鱼只出1只填写[100]" prompt="如果填写1只以上，总几率也必须为100，例如[50,50]" sqref="T3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scene表配置ID" prompt="." sqref="U3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可填写为随机数字，填写随机数字时候要使用数组形式" prompt="[100,200]，意思为100~200之间。当使用随机数字时，应配合特殊动画。" sqref="Y3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="每秒位移的像素数量" prompt="." sqref="AA3:AB3"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AE26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:31">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="12" customHeight="1" spans="1:31">
-      <c r="A2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="17.25" spans="1:31">
-      <c r="A3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:31">
-      <c r="A4" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>21</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>21</v>
-      </c>
-      <c r="J4" s="11">
-        <v>3</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
-        <v>0</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="U4" s="11">
-        <v>8</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="X4" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>20</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>40</v>
-      </c>
-      <c r="AC4" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.004</v>
-      </c>
-      <c r="AD4" s="11">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:31">
-      <c r="A5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="13">
-        <v>2</v>
-      </c>
-      <c r="E5" s="14">
-        <v>3</v>
-      </c>
-      <c r="F5" s="14">
-        <v>57</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
-        <v>57</v>
-      </c>
-      <c r="J5" s="14">
-        <v>3</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="14">
-        <v>0</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="R5" s="14">
-        <v>1</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="U5" s="14">
-        <v>8</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="X5" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA5" s="14">
-        <v>20</v>
-      </c>
-      <c r="AB5" s="14">
-        <v>128</v>
-      </c>
-      <c r="AC5" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.006667</v>
-      </c>
-      <c r="AD5" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:31">
-      <c r="A6" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="16">
-        <v>3</v>
-      </c>
-      <c r="E6" s="17">
-        <v>2</v>
-      </c>
-      <c r="F6" s="17">
-        <v>52</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="16">
-        <v>0</v>
-      </c>
-      <c r="I6" s="17">
-        <v>52</v>
-      </c>
-      <c r="J6" s="17">
-        <v>5</v>
-      </c>
-      <c r="K6" s="17">
-        <v>0</v>
-      </c>
-      <c r="L6" s="17">
-        <v>1</v>
-      </c>
-      <c r="M6" s="17">
-        <v>0</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="R6" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="U6" s="17">
-        <v>223</v>
-      </c>
-      <c r="V6" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="X6" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z6" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA6" s="17">
-        <v>400</v>
-      </c>
-      <c r="AB6" s="17">
-        <v>40</v>
-      </c>
-      <c r="AC6" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.1</v>
-      </c>
-      <c r="AD6" s="17">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:31">
-      <c r="A7" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="13">
-        <v>4</v>
-      </c>
-      <c r="E7" s="14">
-        <v>2</v>
-      </c>
-      <c r="F7" s="14">
-        <v>48</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>48</v>
-      </c>
-      <c r="J7" s="14">
-        <v>4</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14">
-        <v>1</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R7" s="14">
-        <v>1</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="U7" s="14">
-        <v>4</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="X7" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA7" s="14">
-        <v>49</v>
-      </c>
-      <c r="AB7" s="14">
-        <v>98</v>
-      </c>
-      <c r="AC7" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.018182</v>
-      </c>
-      <c r="AD7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:31">
-      <c r="A8" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="16">
-        <v>5</v>
-      </c>
-      <c r="E8" s="17">
-        <v>2</v>
-      </c>
-      <c r="F8" s="17">
-        <v>44</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
-        <v>44</v>
-      </c>
-      <c r="J8" s="17">
-        <v>4</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="L8" s="17">
-        <v>0</v>
-      </c>
-      <c r="M8" s="17">
-        <v>1</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="R8" s="17">
-        <v>1</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="T8" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="U8" s="17">
-        <v>4</v>
-      </c>
-      <c r="V8" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="W8" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="X8" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z8" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA8" s="17">
-        <v>49</v>
-      </c>
-      <c r="AB8" s="17">
-        <v>98</v>
-      </c>
-      <c r="AC8" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.022222</v>
-      </c>
-      <c r="AD8" s="17">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:31">
-      <c r="A9" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="13">
-        <v>6</v>
-      </c>
-      <c r="E9" s="14">
-        <v>2</v>
-      </c>
-      <c r="F9" s="14">
-        <v>8</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>8</v>
-      </c>
-      <c r="J9" s="14">
-        <v>1</v>
-      </c>
-      <c r="K9" s="14">
-        <v>0</v>
-      </c>
-      <c r="L9" s="14">
-        <v>0</v>
-      </c>
-      <c r="M9" s="14">
-        <v>1</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R9" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="U9" s="14">
-        <v>2</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="X9" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z9" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA9" s="14">
-        <v>46</v>
-      </c>
-      <c r="AB9" s="14">
-        <v>92</v>
-      </c>
-      <c r="AC9" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.028571</v>
-      </c>
-      <c r="AD9" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:31">
-      <c r="A10" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="16">
-        <v>7</v>
-      </c>
-      <c r="E10" s="17">
-        <v>2</v>
-      </c>
-      <c r="F10" s="17">
-        <v>43</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="17">
-        <v>43</v>
-      </c>
-      <c r="J10" s="17">
-        <v>4</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="L10" s="17">
-        <v>0</v>
-      </c>
-      <c r="M10" s="17">
-        <v>1</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="R10" s="17">
-        <v>1</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="U10" s="17">
-        <v>2</v>
-      </c>
-      <c r="V10" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="W10" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="X10" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z10" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA10" s="17">
-        <v>52</v>
-      </c>
-      <c r="AB10" s="17">
-        <v>104</v>
-      </c>
-      <c r="AC10" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.028571</v>
-      </c>
-      <c r="AD10" s="17">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="1:31">
-      <c r="A11" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="13">
-        <v>8</v>
-      </c>
-      <c r="E11" s="14">
-        <v>2</v>
-      </c>
-      <c r="F11" s="14">
-        <v>2</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <v>2</v>
-      </c>
-      <c r="J11" s="14">
-        <v>1</v>
-      </c>
-      <c r="K11" s="14">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-      <c r="M11" s="14">
-        <v>1</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R11" s="14">
-        <v>1</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="U11" s="14">
-        <v>2</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="W11" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="X11" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z11" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA11" s="14">
-        <v>49</v>
-      </c>
-      <c r="AB11" s="14">
-        <v>98</v>
-      </c>
-      <c r="AC11" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.04</v>
-      </c>
-      <c r="AD11" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:31">
-      <c r="A12" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" s="16">
-        <v>9</v>
-      </c>
-      <c r="E12" s="17">
-        <v>2</v>
-      </c>
-      <c r="F12" s="17">
-        <v>33</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17">
-        <v>33</v>
-      </c>
-      <c r="J12" s="17">
-        <v>4</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="L12" s="17">
-        <v>0</v>
-      </c>
-      <c r="M12" s="17">
-        <v>0</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="R12" s="17">
-        <v>1</v>
-      </c>
-      <c r="S12" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="U12" s="17">
-        <v>2</v>
-      </c>
-      <c r="V12" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="W12" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="X12" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z12" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA12" s="17">
-        <v>49</v>
-      </c>
-      <c r="AB12" s="17">
-        <v>98</v>
-      </c>
-      <c r="AC12" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.04</v>
-      </c>
-      <c r="AD12" s="17">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:31">
-      <c r="A13" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="13">
-        <v>10</v>
-      </c>
-      <c r="E13" s="14">
-        <v>2</v>
-      </c>
-      <c r="F13" s="14">
-        <v>18</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>18</v>
-      </c>
-      <c r="J13" s="14">
-        <v>1</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0</v>
-      </c>
-      <c r="L13" s="14">
-        <v>0</v>
-      </c>
-      <c r="M13" s="14">
-        <v>1</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="14">
-        <v>1</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="U13" s="14">
-        <v>2</v>
-      </c>
-      <c r="V13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="W13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="X13" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z13" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA13" s="14">
-        <v>52</v>
-      </c>
-      <c r="AB13" s="14">
-        <v>104</v>
-      </c>
-      <c r="AC13" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.04</v>
-      </c>
-      <c r="AD13" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:31">
-      <c r="A14" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="16">
-        <v>11</v>
-      </c>
-      <c r="E14" s="17">
-        <v>2</v>
-      </c>
-      <c r="F14" s="17">
-        <v>35</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H14" s="16">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17">
-        <v>35</v>
-      </c>
-      <c r="J14" s="17">
-        <v>4</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="L14" s="17">
-        <v>0</v>
-      </c>
-      <c r="M14" s="17">
-        <v>1</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="P14" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" s="17">
-        <v>1</v>
-      </c>
-      <c r="S14" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="T14" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="U14" s="17">
-        <v>2</v>
-      </c>
-      <c r="V14" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="W14" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="X14" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z14" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA14" s="17">
-        <v>46</v>
-      </c>
-      <c r="AB14" s="17">
-        <v>92</v>
-      </c>
-      <c r="AC14" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD14" s="17">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:31">
-      <c r="A15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="13">
-        <v>12</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1</v>
-      </c>
-      <c r="F15" s="14">
-        <v>11</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>11</v>
-      </c>
-      <c r="J15" s="14">
-        <v>1</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R15" s="14">
-        <v>1</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="T15" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="U15" s="14">
-        <v>1</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="X15" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z15" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA15" s="14">
-        <v>57</v>
-      </c>
-      <c r="AB15" s="14">
-        <v>114</v>
-      </c>
-      <c r="AC15" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.066667</v>
-      </c>
-      <c r="AD15" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:31">
-      <c r="A16" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" s="16">
-        <v>13</v>
-      </c>
-      <c r="E16" s="17">
-        <v>1</v>
-      </c>
-      <c r="F16" s="17">
-        <v>15</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="H16" s="16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
-        <v>15</v>
-      </c>
-      <c r="J16" s="17">
-        <v>1</v>
-      </c>
-      <c r="K16" s="17">
-        <v>0</v>
-      </c>
-      <c r="L16" s="17">
-        <v>1</v>
-      </c>
-      <c r="M16" s="17">
-        <v>1</v>
-      </c>
-      <c r="N16" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="O16" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="P16" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="R16" s="17">
-        <v>1</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="T16" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="U16" s="17">
-        <v>5</v>
-      </c>
-      <c r="V16" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="W16" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="X16" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z16" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA16" s="17">
-        <v>57</v>
-      </c>
-      <c r="AB16" s="17">
-        <v>114</v>
-      </c>
-      <c r="AC16" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.125</v>
-      </c>
-      <c r="AD16" s="17">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:31">
-      <c r="A17" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="13">
-        <v>14</v>
-      </c>
-      <c r="E17" s="14">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14">
-        <v>12</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14">
-        <v>12</v>
-      </c>
-      <c r="J17" s="14">
-        <v>1</v>
-      </c>
-      <c r="K17" s="14">
-        <v>0</v>
-      </c>
-      <c r="L17" s="14">
-        <v>0</v>
-      </c>
-      <c r="M17" s="14">
-        <v>1</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R17" s="14">
-        <v>1</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="T17" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="U17" s="14">
-        <v>1</v>
-      </c>
-      <c r="V17" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="X17" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z17" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA17" s="14">
-        <v>62</v>
-      </c>
-      <c r="AB17" s="14">
-        <v>124</v>
-      </c>
-      <c r="AC17" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.166667</v>
-      </c>
-      <c r="AD17" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="1:31">
-      <c r="A18" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" s="16">
-        <v>15</v>
-      </c>
-      <c r="E18" s="17">
-        <v>1</v>
-      </c>
-      <c r="F18" s="17">
-        <v>39</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="H18" s="16">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17">
-        <v>39</v>
-      </c>
-      <c r="J18" s="17">
-        <v>1</v>
-      </c>
-      <c r="K18" s="17">
-        <v>0</v>
-      </c>
-      <c r="L18" s="17">
-        <v>0</v>
-      </c>
-      <c r="M18" s="17">
-        <v>1</v>
-      </c>
-      <c r="N18" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="O18" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="P18" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="R18" s="17">
-        <v>1</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="U18" s="17">
-        <v>6</v>
-      </c>
-      <c r="V18" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="W18" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="X18" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z18" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA18" s="17">
-        <v>59</v>
-      </c>
-      <c r="AB18" s="17">
-        <v>118</v>
-      </c>
-      <c r="AC18" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.166667</v>
-      </c>
-      <c r="AD18" s="17">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="1:31">
-      <c r="A19" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D19" s="13">
-        <v>16</v>
-      </c>
-      <c r="E19" s="14">
-        <v>2</v>
-      </c>
-      <c r="F19" s="14">
-        <v>19</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I19" s="14">
-        <v>19</v>
-      </c>
-      <c r="J19" s="14">
-        <v>2</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="L19" s="14">
-        <v>0</v>
-      </c>
-      <c r="M19" s="14">
-        <v>0</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q19" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R19" s="14">
-        <v>1</v>
-      </c>
-      <c r="S19" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="T19" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="U19" s="14">
-        <v>1</v>
-      </c>
-      <c r="V19" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="W19" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="X19" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z19" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA19" s="14">
-        <v>64</v>
-      </c>
-      <c r="AB19" s="14">
-        <v>128</v>
-      </c>
-      <c r="AC19" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.05</v>
-      </c>
-      <c r="AD19" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="AE19" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" ht="15" spans="1:31">
-      <c r="A20" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="D20" s="17">
-        <v>17</v>
-      </c>
-      <c r="E20" s="17">
-        <v>2</v>
-      </c>
-      <c r="F20" s="17">
-        <v>17</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="I20" s="17">
-        <v>17</v>
-      </c>
-      <c r="J20" s="17">
-        <v>2</v>
-      </c>
-      <c r="K20" s="17">
-        <v>0</v>
-      </c>
-      <c r="L20" s="17">
-        <v>0</v>
-      </c>
-      <c r="M20" s="17">
-        <v>1</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="O20" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="P20" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="R20" s="17">
-        <v>1</v>
-      </c>
-      <c r="S20" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="T20" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="U20" s="17">
-        <v>8</v>
-      </c>
-      <c r="V20" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="W20" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="X20" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z20" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA20" s="17">
-        <v>59</v>
-      </c>
-      <c r="AB20" s="17">
-        <v>118</v>
-      </c>
-      <c r="AC20" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.0125</v>
-      </c>
-      <c r="AD20" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="AE20" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" ht="15" spans="1:31">
-      <c r="A21" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D21" s="13">
-        <v>18</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14">
-        <v>7</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14">
-        <v>7</v>
-      </c>
-      <c r="J21" s="14">
-        <v>1</v>
-      </c>
-      <c r="K21" s="14">
-        <v>0</v>
-      </c>
-      <c r="L21" s="14">
-        <v>0</v>
-      </c>
-      <c r="M21" s="14">
-        <v>1</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q21" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R21" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="S21" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="T21" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="U21" s="14">
-        <v>6</v>
-      </c>
-      <c r="V21" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="W21" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="X21" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z21" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA21" s="14">
-        <v>73</v>
-      </c>
-      <c r="AB21" s="14">
-        <v>146</v>
-      </c>
-      <c r="AC21" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.2</v>
-      </c>
-      <c r="AD21" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="24" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="1:31">
-      <c r="A22" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="D22" s="16">
-        <v>19</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
-      <c r="F22" s="17">
-        <v>13</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="H22" s="16">
-        <v>0</v>
-      </c>
-      <c r="I22" s="17">
-        <v>13</v>
-      </c>
-      <c r="J22" s="17">
-        <v>1</v>
-      </c>
-      <c r="K22" s="17">
-        <v>0</v>
-      </c>
-      <c r="L22" s="17">
-        <v>0</v>
-      </c>
-      <c r="M22" s="17">
-        <v>1</v>
-      </c>
-      <c r="N22" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="O22" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="P22" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q22" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="R22" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="S22" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="T22" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="U22" s="17">
-        <v>1</v>
-      </c>
-      <c r="V22" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="W22" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="X22" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z22" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA22" s="17">
-        <v>62</v>
-      </c>
-      <c r="AB22" s="17">
-        <v>124</v>
-      </c>
-      <c r="AC22" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.25</v>
-      </c>
-      <c r="AD22" s="17">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" ht="15" spans="1:31">
-      <c r="A23" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D23" s="13">
-        <v>20</v>
-      </c>
-      <c r="E23" s="14">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14">
-        <v>14</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14">
-        <v>14</v>
-      </c>
-      <c r="J23" s="14">
-        <v>1</v>
-      </c>
-      <c r="K23" s="14">
-        <v>0</v>
-      </c>
-      <c r="L23" s="14">
-        <v>0</v>
-      </c>
-      <c r="M23" s="14">
-        <v>1</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="P23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R23" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="S23" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="T23" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="U23" s="14">
-        <v>0</v>
-      </c>
-      <c r="V23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="W23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="X23" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z23" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA23" s="14">
-        <v>66</v>
-      </c>
-      <c r="AB23" s="14">
-        <v>132</v>
-      </c>
-      <c r="AC23" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.25</v>
-      </c>
-      <c r="AD23" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="24" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="1:31">
-      <c r="A24" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="D24" s="16">
-        <v>21</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17">
-        <v>3</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="H24" s="16">
-        <v>0</v>
-      </c>
-      <c r="I24" s="17">
-        <v>3</v>
-      </c>
-      <c r="J24" s="17">
-        <v>1</v>
-      </c>
-      <c r="K24" s="17">
-        <v>0</v>
-      </c>
-      <c r="L24" s="17">
-        <v>0</v>
-      </c>
-      <c r="M24" s="17">
-        <v>1</v>
-      </c>
-      <c r="N24" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="O24" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="P24" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="R24" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="S24" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="T24" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="U24" s="17">
-        <v>6</v>
-      </c>
-      <c r="V24" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="W24" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="X24" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z24" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA24" s="17">
-        <v>81</v>
-      </c>
-      <c r="AB24" s="17">
-        <v>162</v>
-      </c>
-      <c r="AC24" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.5</v>
-      </c>
-      <c r="AD24" s="17">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="1:31">
-      <c r="A25" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D25" s="13">
-        <v>22</v>
-      </c>
-      <c r="E25" s="14">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14">
-        <v>1</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14">
-        <v>1</v>
-      </c>
-      <c r="J25" s="14">
-        <v>1</v>
-      </c>
-      <c r="K25" s="14">
-        <v>0</v>
-      </c>
-      <c r="L25" s="14">
-        <v>0</v>
-      </c>
-      <c r="M25" s="14">
-        <v>1</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R25" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="S25" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="T25" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="U25" s="14">
-        <v>0</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="W25" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="X25" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z25" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA25" s="14">
-        <v>73</v>
-      </c>
-      <c r="AB25" s="14">
-        <v>146</v>
-      </c>
-      <c r="AC25" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>0.5</v>
-      </c>
-      <c r="AD25" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="1:31">
-      <c r="A26" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D26" s="19">
-        <v>23</v>
-      </c>
-      <c r="E26" s="20">
-        <v>0</v>
-      </c>
-      <c r="F26" s="20">
-        <v>16</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="H26" s="19">
-        <v>0</v>
-      </c>
-      <c r="I26" s="20">
-        <v>16</v>
-      </c>
-      <c r="J26" s="20">
-        <v>1</v>
-      </c>
-      <c r="K26" s="20">
-        <v>0</v>
-      </c>
-      <c r="L26" s="20">
-        <v>0</v>
-      </c>
-      <c r="M26" s="20">
-        <v>1</v>
-      </c>
-      <c r="N26" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="O26" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="P26" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q26" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="R26" s="20">
-        <v>1</v>
-      </c>
-      <c r="S26" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="T26" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="U26" s="20">
-        <v>0</v>
-      </c>
-      <c r="V26" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="W26" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="X26" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z26" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA26" s="20">
-        <v>81</v>
-      </c>
-      <c r="AB26" s="20">
-        <v>162</v>
-      </c>
-      <c r="AC26" s="11">
-        <f>ROUND(1/IF(表1_3[[#This Row],[类型1234]]=2,MID(表1_3[[#This Row],[分值]],2,1)*10,IF(MID(表1_3[[#This Row],[分值]],1,1)="[",MID(表1_3[[#This Row],[分值]],2,FIND(",",表1_3[[#This Row],[分值]],1)-2)/2+MID(表1_3[[#This Row],[分值]],FIND(",",表1_3[[#This Row],[分值]],1)+1,LEN(表1_3[[#This Row],[分值]])-FIND(",",表1_3[[#This Row],[分值]],1)-1)/2,表1_3[[#This Row],[分值]])),6)</f>
-        <v>1</v>
-      </c>
-      <c r="AD26" s="20">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I2">
-    <cfRule type="top10" dxfId="1" priority="1" rank="1"/>
-  </conditionalFormatting>
-  <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0小&#10;1中&#10;2大&#10;3超大" sqref="E3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="初始血量默认为1，不能填写0" prompt="." sqref="X3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="只有一个技能的填写[100]" prompt="如果填写1个以上，填写[50,50]" sqref="V3:W3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0代表鱼阵，用鱼阵配置" prompt="." sqref="I3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0不翻转，1左右 2上下" prompt="." sqref="L3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="捕获到大鱼，金币获得界面显示鱼名称" prompt="." sqref="K3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" prompt="1普通，2技能，3boss，4奖金鱼，5宝箱鱼，6话费鱼" sqref="J3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0无需调整，1实时调整朝向" prompt="." sqref="M3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="填写0.8即变为原体型的0.8倍大小" prompt="." sqref="R3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="数组第1个元素必须为动画第1帧" prompt="逗号之后填写整个移动动画的总帧数&#10;[&quot;第一帧名称&quot;, 总帧数]" sqref="O3:P3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="默认[],[x偏移,y偏移,自身缩放]" sqref="Q3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="可以以范围刷新" prompt="[2,4]代表2~4秒刷新1次&#10;[2]代表2秒刷新1次" sqref="S3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="同一条鱼只出1只填写[100]" prompt="如果填写1只以上，总几率也必须为100，例如[50,50]" sqref="T3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scene表配置ID" prompt="." sqref="U3"/>
